--- a/biology/Botanique/Phoenix_(palmier)/Phoenix_(palmier).xlsx
+++ b/biology/Botanique/Phoenix_(palmier)/Phoenix_(palmier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Phoenix L. (1753), qui constitue les dattiers, fait partie de la famille des Arécacées. C'est le seul genre de la tribu des Phoeniceae. Il fait partie de la sous-famille des Coryphoideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat de Phoenix va de l'Afrique et des îles Canaries jusqu'en Crète et au Moyen-Orient. On la retrouve également sur le continent asiatique en Inde, en Chine, en Indonésie et aux Philippines.
 Les espèces Phoenix dactylifera, le « vrai dattier », et Phoenix canariensis, le « faux dattier », sont très répandues et cultivées dans presque tous les pays où le climat le permet. La première espèce est utilisée pour la production de dattes, la deuxième pour sa valeur ornementale.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stipe : Le stipe est unique ou multiple. Il est court chez certaines espèces mais peut atteindre 40 mètres chez d'autres. Il peut être fin ou robuste.
 Couronne : La couronne est épaisse et touffue.
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenix dactylifera, ou palmier-dattier est utilisé pour la production des dattes. Les espèces du genre Phoenix sont également très souvent plantées pour leur valeur ornementale, en alignement dans les villes, sur les places et dans les jardins.
 </t>
@@ -608,7 +626,9 @@
           <t>Rusticité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les températures sont données à titre indicatif. Elles donnent la résistance au froid dans de bonnes conditions : froid bref et air sec.
 Phoenix canariensis : −10 °C (Phoenix canariensis porphyrocarpa : −12 °C)
@@ -646,9 +666,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 Jan 2011)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 Jan 2011) :
 Phoenix acaulis Roxb. (1820)
 Phoenix andamanensis S.Barrow (1998)
 Phoenix atlantica A.Chev. (1935)
